--- a/docs/StructureDefinition-CareConnect-Quantity-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Quantity-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$10</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="106">
   <si>
     <t>Path</t>
   </si>
@@ -122,6 +122,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -141,9 +147,6 @@
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>Element</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -154,6 +157,12 @@
 qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
   </si>
   <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
     <t>Quantity.id</t>
   </si>
   <si>
@@ -170,34 +179,23 @@
     <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
-    <t>Note that FHIR strings may not exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Element.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>Quantity.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -213,10 +211,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>valueApproximation</t>
   </si>
   <si>
@@ -249,6 +243,12 @@
     <t>Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
     <t>Quantity.comparator</t>
   </si>
   <si>
@@ -280,6 +280,12 @@
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
   </si>
   <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -290,6 +296,12 @@
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -305,14 +317,14 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>ele-1
-qty-3</t>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -328,6 +340,9 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
 </sst>
 </file>
@@ -476,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -487,7 +502,7 @@
   <cols>
     <col min="1" max="1" width="19.953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
@@ -495,7 +510,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="41.16015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -520,6 +535,8 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="36" max="36" width="25.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="67.015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -628,275 +645,289 @@
       <c r="AI1" t="s" s="1">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s" s="2">
         <v>58</v>
       </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>59</v>
@@ -905,7 +936,7 @@
         <v>60</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>61</v>
@@ -914,628 +945,664 @@
         <v>62</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>66</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>58</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="N6" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="O6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AF7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>99</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI10">
+  <autoFilter ref="A1:AK10">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
